--- a/P0057/09_FICHAS/N3-FD-General.xlsx
+++ b/P0057/09_FICHAS/N3-FD-General.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0057\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0057/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C83DCA4-CA94-46A5-A0EE-529555EBE8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{5C83DCA4-CA94-46A5-A0EE-529555EBE8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFB6BC39-71C0-4F2F-ADDB-BE792E7F75D5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -78,58 +89,70 @@
     <t>P0057</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>R0001</t>
+  </si>
+  <si>
+    <t>Info_Mojana — PROFUNDIDAD_TR100_SAN_MARCOS</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0057/02_PRODUCTOS/Capas/Info_Mojana.gdb</t>
+  </si>
+  <si>
+    <t>Capas cartográficas de amenaza de inundación</t>
+  </si>
+  <si>
+    <t>La capa dentro de la gdb Mojana contiene información con geometría tipo polígono y en su tabla de atributos contiene las siguientes variables:  cota, profundidad, longitud y área del polígono.</t>
+  </si>
+  <si>
+    <t>Feature class</t>
+  </si>
+  <si>
+    <t>gdb</t>
+  </si>
+  <si>
+    <t>Medio abiótico</t>
+  </si>
+  <si>
+    <t>Polígono</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>Se requiere mayor información del proyecto para tener mejor contexto</t>
+  </si>
+  <si>
+    <t>La Mojana, profundida, cota, áreas.</t>
+  </si>
+  <si>
     <t>PR0001</t>
   </si>
   <si>
-    <t>R0001</t>
-  </si>
-  <si>
-    <t>Info_Mojana — PROFUNDIDAD_TR100_SAN_MARCOS</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0057/02_PRODUCTOS/Capas/Info_Mojana.gdb</t>
-  </si>
-  <si>
-    <t>Capas cartográficas de amenaza de inundación</t>
-  </si>
-  <si>
-    <t>La capa dentro de la gdb Mojana contiene informacion con geometría tipo polígono y en su tabla de atributos contiene las siguientes variables:  cota, profundidad, longitud y área del polígono.</t>
-  </si>
-  <si>
-    <t>Feature class</t>
-  </si>
-  <si>
-    <t>.gdb</t>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>Info_Mojana — ManchaInundacion_2021</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0057/02_PRODUCTOS/Capas/Info_Mojana.gdb/Info_Mojana.gdb</t>
+  </si>
+  <si>
+    <t>La capa "Info_Mojana — ManchaInundacion_2021" representa un único polígono (MultiPolygon) que delimita la extensión de la inundación ocurrida en 2021 en la región de la Mojana, utilizando el sistema de coordenadas CTM_12 (metros). La información de la tabla de atributos incluye el área total inundada (AREA), el perímetro (PERIMETER), y variables relacionadas con la inundación de 2021 (INUNDA2021, INUNDA20_1, AFECTACION).  Esta capa, si bien contiene un único polígono, proporciona información valiosa sobre la inundación de 2021 que sirve como dato histórico para la validación del modelo.  Una descripción detallada del significado de las variables INUNDA2021, INUNDA20_1, y AFECTACION es crucial para una interpretación y uso correctos de esta capa. A pesar de su simplicidad, esta capa aporta un dato fundamental para la validación del modelo.</t>
   </si>
   <si>
     <t>MEDIO ABIÓTICO</t>
   </si>
   <si>
-    <t>Polígono</t>
-  </si>
-  <si>
-    <t>Vector</t>
-  </si>
-  <si>
-    <t>DESCONOCIDO</t>
-  </si>
-  <si>
-    <t>Se requiere mayor información del proyecto para tener mejor contexto</t>
-  </si>
-  <si>
-    <t>La Mojana, profundida, cota, áreas</t>
-  </si>
-  <si>
-    <t>R0002</t>
-  </si>
-  <si>
-    <t>Info_Mojana — ManchaInundacion_2021</t>
-  </si>
-  <si>
-    <t>La capa dentro de la gdb Mojana contiene información con geometría tipo polígono.  La tabla de atributo contiene el área de la inundación y el área.</t>
-  </si>
-  <si>
-    <t>La Mojana, mancha, inundación áreas</t>
+    <t>Variable:  AREA (Área total inundada en 2021, que sirve como referencia para validar la exactitud de las simulaciones de inundación), PERIMETER (Perímetro de la zona inundada, útil para el análisis espacial), INUNDA2021, INUNDA20_1,AFECTACION (Estas variables requieren una descripción detallada para determinar su utilidad. Probablemente indican el nivel o la severidad de la inundación en diferentes zonas o categorías)</t>
+  </si>
+  <si>
+    <t>La Mojana, mancha, inundación, áreas.</t>
   </si>
   <si>
     <t>R0003</t>
@@ -138,7 +161,10 @@
     <t>Info_Mojana — MAGANGUÉ_INUNDACIÓN_TR100</t>
   </si>
   <si>
-    <t>La capa dentro de la gdb Mojana contiene informacion con geometria tipo polígono y en su tabla de atributos contiene las siguientes variables:   profundidad, longitud y área del polígono.</t>
+    <t>La capa "Info_Mojana — MAGANGUÉ_INUNDACIÓN_TR100" representa 19 polígonos (MultiPolygon) que delimitan la extensión de una inundación simulada en el municipio de Magangué, con un periodo de retorno de 100 años, utilizando el sistema de coordenadas MAGNA-SIRGAS / Colombia Bogota zone (metros). Cada polígono representa una zona inundada y se caracteriza por atributos que incluyen un código de cuadrícula (gricode), la profundidad de la inundación (profundidad), el área (Shape_Area), y la longitud del perímetro (Shape_leng, Shape_Le_1, Shpae_Length). Esta capa es fundamental para la evaluación del riesgo de inundación en Magangué bajo un escenario de inundación con periodo de retorno de 100 años. La integración con otras capas, como información sobre uso del suelo, edificaciones, infraestructura, y vulnerabilidad, permitirá un análisis más completo del riesgo y la planificación de intervenciones más efectivas. Se recomienda una descripción más detallada del significado de gricode para una mejor interpretación de la capa.  La redundancia en los campos de longitud del perímetro debe ser revisada y corregida.</t>
+  </si>
+  <si>
+    <t>Variable: Profundidad (Similar a gricode, representa la profundidad de la inundación. Si ambos campos son similares, solo uno es necesario), Shape_Area (El área de cada polígono permite cuantificar la magnitud de la inundación en cada zona), Shape_leng, Shape_Le_1, Shpae_Length (Estos campos parecen ser redundantes y representan la longitud del perímetro. Solo uno es necesario)</t>
   </si>
   <si>
     <t>R0004</t>
@@ -147,10 +173,16 @@
     <t>Info_Mojana — Amenaza_inund_TR25</t>
   </si>
   <si>
+    <t>La capa "Info_Mojana — MAGANGUÉ_INUNDACIÓN_TR100" representa 976 polígonos (MultiPolygon) que delimitan la extensión de una inundación simulada en el municipio de Magangué, con un periodo de retorno de 100 años, utilizando el sistema de coordenadas WGS 84 (grados de latitud y longitud). Cada polígono representa una zona inundada y se caracteriza por atributos que incluyen un código de cuadrícula (gricode), el nivel de amenaza (Amenaza), el área (Shape_Area), y la longitud del perímetro (Shape_leng). Esta capa es fundamental para la evaluación del riesgo de inundación en Magangué bajo un escenario de inundación con periodo de retorno de 100 años. La integración con otras capas, como información sobre uso del suelo, edificaciones, infraestructura, y vulnerabilidad, permitirá un análisis más completo del riesgo y la planificación de intervenciones más efectivas. Se recomienda una descripción más detallada del significado de gricode y Amenaza para una mejor interpretación de la capa.</t>
+  </si>
+  <si>
     <t>La capa dentro de la gdb Mojana contiene información con geometría tipo polígono.  La tabla de atributo contiene información categórica de la Amenaza,  el área de la inundación y la longitud</t>
   </si>
   <si>
-    <t>La Mojana, amenaza, profundida, cota, áreas</t>
+    <t>Variable: Amenaza (Esta variable, si está bien definida, indica el nivel de amenaza de inundación en cada polígono. Es fundamental para modelar el riesgo), Shape_Area (El área de cada polígono permite cuantificar la magnitud de la inundación en cada zona), Shape_leng (La longitud del perímetro puede ser útil para análisis espaciales, pero es menos importante que el área y la profundidad)</t>
+  </si>
+  <si>
+    <t>La Mojana, amenaza, profundida, cota, áreas.</t>
   </si>
   <si>
     <t>PR0002</t>
@@ -162,7 +194,7 @@
     <t>Mapa La Mojana</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0057/02_PRODUCTOS/Salidas cartográficas</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0057/02_PRODUCTOS/Salidas cartográficas/Mapa La Mojana.pdf</t>
   </si>
   <si>
     <t>Cartografía temática</t>
@@ -174,20 +206,38 @@
     <t>Mapa</t>
   </si>
   <si>
-    <t>.pdf</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>La Mojana, drenajes, áreas protegidas</t>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>Variable: localización</t>
+  </si>
+  <si>
+    <t>La Mojana, drenajes, áreas protegidas.</t>
+  </si>
+  <si>
+    <t>R0006</t>
+  </si>
+  <si>
+    <t>Poligono La Mojana</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0057/02_PRODUCTOS/Capas/Poligono La Mojana/Poligono La Mojana.shp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa cartografica que corresponde al área total de la región de La Mojana. La tabla de atributo contiene información sobre el área del municipio de Nechí, Antioquia. </t>
+  </si>
+  <si>
+    <t>shp</t>
+  </si>
+  <si>
+    <t>Territorio de La Mojana, áreas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,13 +245,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -231,9 +293,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,15 +577,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="11" max="11" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -622,207 +688,258 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="M6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1">
         <v>9999</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>51</v>
+      <c r="P7" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>